--- a/Documents/logboek/logboek.xlsx
+++ b/Documents/logboek/logboek.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
   <si>
     <t>logboek</t>
   </si>
@@ -64,6 +64,12 @@
   </si>
   <si>
     <t>20-04-2017 09:40-12:20</t>
+  </si>
+  <si>
+    <t>technische testen gemaakt</t>
+  </si>
+  <si>
+    <t>21-04-2017 09:40-10:15</t>
   </si>
 </sst>
 </file>
@@ -423,7 +429,7 @@
   <dimension ref="B2:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -492,7 +498,15 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>4</v>
       </c>
